--- a/Code/Results/Cases/Case_5_219/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_219/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.589728390601294</v>
+        <v>1.413372394153498</v>
       </c>
       <c r="C2">
-        <v>0.4109208041805061</v>
+        <v>0.201456015503112</v>
       </c>
       <c r="D2">
-        <v>0.05109774774321352</v>
+        <v>0.1185488847114016</v>
       </c>
       <c r="E2">
-        <v>0.04520297858439859</v>
+        <v>0.1291941946858399</v>
       </c>
       <c r="F2">
-        <v>0.8086268239293801</v>
+        <v>1.803637194831531</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07254523185377781</v>
+        <v>0.1737659992641758</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1823055806780474</v>
+        <v>0.272579169364171</v>
       </c>
       <c r="M2">
-        <v>0.4486898713196368</v>
+        <v>0.3230976196828124</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.128222155061593</v>
+        <v>4.726910747837309</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.2537528398463</v>
+        <v>1.314378415876035</v>
       </c>
       <c r="C3">
-        <v>0.3732989647291731</v>
+        <v>0.1887386274958658</v>
       </c>
       <c r="D3">
-        <v>0.04844211139963406</v>
+        <v>0.1182101425572206</v>
       </c>
       <c r="E3">
-        <v>0.04655302595218158</v>
+        <v>0.1301246217882692</v>
       </c>
       <c r="F3">
-        <v>0.7975666293070276</v>
+        <v>1.816263475189238</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07500818800613018</v>
+        <v>0.1750953665009884</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1652364408551392</v>
+        <v>0.2687900340461695</v>
       </c>
       <c r="M3">
-        <v>0.3923440623328034</v>
+        <v>0.3071849845766366</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.107866517624274</v>
+        <v>4.765067934788078</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.048070143142979</v>
+        <v>1.253802580274055</v>
       </c>
       <c r="C4">
-        <v>0.3502098650651675</v>
+        <v>0.1808928524815485</v>
       </c>
       <c r="D4">
-        <v>0.04684297251762715</v>
+        <v>0.1180283284263695</v>
       </c>
       <c r="E4">
-        <v>0.0474264913511746</v>
+        <v>0.1307297229449214</v>
       </c>
       <c r="F4">
-        <v>0.7926159110278732</v>
+        <v>1.825028694161645</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07659006999647922</v>
+        <v>0.1759581931711569</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1548681308966948</v>
+        <v>0.2665419847514272</v>
       </c>
       <c r="M4">
-        <v>0.3578919510471934</v>
+        <v>0.2974856371997561</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.100777326239239</v>
+        <v>4.791342454178078</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.964371722024453</v>
+        <v>1.229171044146653</v>
       </c>
       <c r="C5">
-        <v>0.3408005441968669</v>
+        <v>0.177686475829006</v>
       </c>
       <c r="D5">
-        <v>0.04619887260474442</v>
+        <v>0.1179608494628575</v>
       </c>
       <c r="E5">
-        <v>0.0477935330113084</v>
+        <v>0.1309848238460094</v>
       </c>
       <c r="F5">
-        <v>0.7910409442772064</v>
+        <v>1.828855203617941</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07725202608321791</v>
+        <v>0.1763215372722504</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1506690186914525</v>
+        <v>0.2656457351205148</v>
       </c>
       <c r="M5">
-        <v>0.3438828421658258</v>
+        <v>0.2935512272236167</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.099186604741647</v>
+        <v>4.802764799976671</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.950479899185723</v>
+        <v>1.225084281260138</v>
       </c>
       <c r="C6">
-        <v>0.3392380289396186</v>
+        <v>0.1771535123344705</v>
       </c>
       <c r="D6">
-        <v>0.04609236746481216</v>
+        <v>0.117950044848893</v>
       </c>
       <c r="E6">
-        <v>0.04785514739653296</v>
+        <v>0.1310276979949387</v>
       </c>
       <c r="F6">
-        <v>0.7908055746501859</v>
+        <v>1.82950596984476</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07736298480023418</v>
+        <v>0.1763825796478349</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1499732725623772</v>
+        <v>0.265498115628823</v>
       </c>
       <c r="M6">
-        <v>0.3415583110128679</v>
+        <v>0.2928990261310318</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.098999120728593</v>
+        <v>4.804704661930742</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.04694091851519</v>
+        <v>1.253470171585718</v>
       </c>
       <c r="C7">
-        <v>0.3500829728678667</v>
+        <v>0.1808496469739964</v>
       </c>
       <c r="D7">
-        <v>0.04683425577798772</v>
+        <v>0.1180273915695231</v>
       </c>
       <c r="E7">
-        <v>0.04743139659970375</v>
+        <v>0.1307331288198812</v>
       </c>
       <c r="F7">
-        <v>0.7925929048703892</v>
+        <v>1.825079268927482</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07659892744316465</v>
+        <v>0.1759630458151182</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1548113974494498</v>
+        <v>0.2665298171012935</v>
       </c>
       <c r="M7">
-        <v>0.3577029037386765</v>
+        <v>0.2974325024971662</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.100750696548118</v>
+        <v>4.791493604314923</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.473736750419391</v>
+        <v>1.379197253359678</v>
       </c>
       <c r="C8">
-        <v>0.3979446187567817</v>
+        <v>0.1970789102430217</v>
       </c>
       <c r="D8">
-        <v>0.05017534707307192</v>
+        <v>0.1184266714329851</v>
       </c>
       <c r="E8">
-        <v>0.04565917123943208</v>
+        <v>0.1295079962001919</v>
       </c>
       <c r="F8">
-        <v>0.8044187907438314</v>
+        <v>1.807780549492783</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07337989939548528</v>
+        <v>0.1742147073574989</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1763955070440133</v>
+        <v>0.2712564483201874</v>
       </c>
       <c r="M8">
-        <v>0.4292281631696611</v>
+        <v>0.3175963537850208</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.120042493218932</v>
+        <v>4.73947647833603</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.317182538951954</v>
+        <v>1.627332369568535</v>
       </c>
       <c r="C9">
-        <v>0.492041323218416</v>
+        <v>0.2286013970677629</v>
       </c>
       <c r="D9">
-        <v>0.05699353454203759</v>
+        <v>0.1194161389837944</v>
       </c>
       <c r="E9">
-        <v>0.04254180660770412</v>
+        <v>0.1273731662755422</v>
       </c>
       <c r="F9">
-        <v>0.8431811897119061</v>
+        <v>1.781894509591751</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06762822914808098</v>
+        <v>0.1711549734841888</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2197184163313324</v>
+        <v>0.2811439992479166</v>
       </c>
       <c r="M9">
-        <v>0.5709279586420593</v>
+        <v>0.3576914336833781</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.203762953833859</v>
+        <v>4.660069162567112</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.943394118368758</v>
+        <v>1.810546480302207</v>
       </c>
       <c r="C10">
-        <v>0.561559353939856</v>
+        <v>0.2515684342345708</v>
       </c>
       <c r="D10">
-        <v>0.06219104828195299</v>
+        <v>0.1202675146623022</v>
       </c>
       <c r="E10">
-        <v>0.04047633193297617</v>
+        <v>0.125966941002706</v>
       </c>
       <c r="F10">
-        <v>0.8825919672036946</v>
+        <v>1.767779362188676</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06375673110934166</v>
+        <v>0.1691304891481877</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2523166259726395</v>
+        <v>0.2887808919493011</v>
       </c>
       <c r="M10">
-        <v>0.6763594988692958</v>
+        <v>0.387476564402391</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.297654397211403</v>
+        <v>4.615532086818973</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.230317192850009</v>
+        <v>1.894082098309525</v>
       </c>
       <c r="C11">
-        <v>0.5933272022793972</v>
+        <v>0.261973451611226</v>
       </c>
       <c r="D11">
-        <v>0.06460268188638452</v>
+        <v>0.1206815454333494</v>
       </c>
       <c r="E11">
-        <v>0.03958707030735731</v>
+        <v>0.125362241172053</v>
       </c>
       <c r="F11">
-        <v>0.9032398372685009</v>
+        <v>1.762423678517848</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06207538504683541</v>
+        <v>0.1682577555639497</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2673524109417258</v>
+        <v>0.2923350893886152</v>
       </c>
       <c r="M11">
-        <v>0.7247193968410386</v>
+        <v>0.4010956942395296</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.348457853886941</v>
+        <v>4.598274365031358</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.339318724754094</v>
+        <v>1.925740974398821</v>
       </c>
       <c r="C12">
-        <v>0.6053827514977002</v>
+        <v>0.2659072357272407</v>
       </c>
       <c r="D12">
-        <v>0.06552326110943341</v>
+        <v>0.1208421452284796</v>
       </c>
       <c r="E12">
-        <v>0.03925770943684803</v>
+        <v>0.1251382753191099</v>
       </c>
       <c r="F12">
-        <v>0.9114809213607913</v>
+        <v>1.760548882973524</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06145045846577268</v>
+        <v>0.167934187544823</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2730792688728059</v>
+        <v>0.293692399584998</v>
       </c>
       <c r="M12">
-        <v>0.7430990075242434</v>
+        <v>0.4062626991946985</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.368955231759145</v>
+        <v>4.592171528068803</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.315826815551475</v>
+        <v>1.918921549962874</v>
       </c>
       <c r="C13">
-        <v>0.6027851420897434</v>
+        <v>0.2650603116462946</v>
       </c>
       <c r="D13">
-        <v>0.06532466193653619</v>
+        <v>0.1208073879653213</v>
       </c>
       <c r="E13">
-        <v>0.03932831241275014</v>
+        <v>0.1251862872592024</v>
       </c>
       <c r="F13">
-        <v>0.9096867586194151</v>
+        <v>1.760945834938951</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06158451966678058</v>
+        <v>0.168003566311727</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2718443567216013</v>
+        <v>0.2933995727195793</v>
       </c>
       <c r="M13">
-        <v>0.7391375011097594</v>
+        <v>0.4051494638105169</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.364483147191692</v>
+        <v>4.593466648449748</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.239277473018774</v>
+        <v>1.896686186464422</v>
       </c>
       <c r="C14">
-        <v>0.5943184726976654</v>
+        <v>0.2622972152873615</v>
       </c>
       <c r="D14">
-        <v>0.06467826795457654</v>
+        <v>0.1206946817769534</v>
       </c>
       <c r="E14">
-        <v>0.03955982475530195</v>
+        <v>0.1253437148095964</v>
       </c>
       <c r="F14">
-        <v>0.9039091882901715</v>
+        <v>1.762266365391469</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06202373450912013</v>
+        <v>0.1682309968867681</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2678228784520371</v>
+        <v>0.2924465280184165</v>
       </c>
       <c r="M14">
-        <v>0.7262301034269285</v>
+        <v>0.4015205933759134</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.350118374359852</v>
+        <v>4.597763614164165</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.192436057943269</v>
+        <v>1.883069688813407</v>
       </c>
       <c r="C15">
-        <v>0.5891359057057173</v>
+        <v>0.260603903063128</v>
       </c>
       <c r="D15">
-        <v>0.06428330674307148</v>
+        <v>0.1206261419864845</v>
       </c>
       <c r="E15">
-        <v>0.0397025987281161</v>
+        <v>0.1254407972385119</v>
       </c>
       <c r="F15">
-        <v>0.9004262044655178</v>
+        <v>1.763095193309454</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06229430696054727</v>
+        <v>0.168371205042245</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2653640276122076</v>
+        <v>0.2918642436241612</v>
       </c>
       <c r="M15">
-        <v>0.7183329385595982</v>
+        <v>0.399299064801788</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.341486489349649</v>
+        <v>4.600451942463565</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.92468893872956</v>
+        <v>1.805090924550484</v>
       </c>
       <c r="C16">
-        <v>0.5594865674543428</v>
+        <v>0.2508875621264508</v>
       </c>
       <c r="D16">
-        <v>0.062034439318019</v>
+        <v>0.1202409922649039</v>
       </c>
       <c r="E16">
-        <v>0.04053547232894372</v>
+        <v>0.1260071628043513</v>
       </c>
       <c r="F16">
-        <v>0.8812999115808395</v>
+        <v>1.768150814089381</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06386824103943312</v>
+        <v>0.1691884931710312</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2513384466196413</v>
+        <v>0.2885502198546135</v>
       </c>
       <c r="M16">
-        <v>0.6732078765290765</v>
+        <v>0.386587900409225</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.294505104266563</v>
+        <v>4.616720382366964</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.760998662339432</v>
+        <v>1.757301111757101</v>
       </c>
       <c r="C17">
-        <v>0.5413379555011772</v>
+        <v>0.2449157849360404</v>
       </c>
       <c r="D17">
-        <v>0.06066731336971287</v>
+        <v>0.1200115421759236</v>
       </c>
       <c r="E17">
-        <v>0.04105940551598142</v>
+        <v>0.1263635652952764</v>
       </c>
       <c r="F17">
-        <v>0.8702845144256202</v>
+        <v>1.771525202052544</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06485443793877543</v>
+        <v>0.1697022104330053</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2427894881684978</v>
+        <v>0.2865376194632745</v>
       </c>
       <c r="M17">
-        <v>0.6456336801521942</v>
+        <v>0.3788076636251105</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.267821767598065</v>
+        <v>4.627469921995271</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.667038383706313</v>
+        <v>1.729831713786439</v>
       </c>
       <c r="C18">
-        <v>0.5309125541473065</v>
+        <v>0.2414769605222489</v>
       </c>
       <c r="D18">
-        <v>0.05988539132466997</v>
+        <v>0.1198820867812813</v>
       </c>
       <c r="E18">
-        <v>0.04136548641822024</v>
+        <v>0.1265718535738491</v>
       </c>
       <c r="F18">
-        <v>0.8642027436216182</v>
+        <v>1.773566333034552</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06542916684272093</v>
+        <v>0.1700022261273304</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2378915887490223</v>
+        <v>0.2853875743668937</v>
       </c>
       <c r="M18">
-        <v>0.6298106356464928</v>
+        <v>0.3743392572044968</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.253229704255773</v>
+        <v>4.633935342195883</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.635256104755626</v>
+        <v>1.720534196469487</v>
       </c>
       <c r="C19">
-        <v>0.5273848117661259</v>
+        <v>0.2403119504864435</v>
       </c>
       <c r="D19">
-        <v>0.05962138779926818</v>
+        <v>0.11983868881115</v>
       </c>
       <c r="E19">
-        <v>0.04146992797123872</v>
+        <v>0.1266429426903799</v>
       </c>
       <c r="F19">
-        <v>0.8621862753758052</v>
+        <v>1.774274644115792</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06562503903149519</v>
+        <v>0.1701045863732968</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2362364483515762</v>
+        <v>0.2849994888654663</v>
       </c>
       <c r="M19">
-        <v>0.6244592873356041</v>
+        <v>0.3728274705714298</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.248416044113185</v>
+        <v>4.636172937351887</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.778403724227303</v>
+        <v>1.76238656406349</v>
       </c>
       <c r="C20">
-        <v>0.5432685046275196</v>
+        <v>0.2455519080328088</v>
       </c>
       <c r="D20">
-        <v>0.06081238572799919</v>
+        <v>0.1200357071151998</v>
       </c>
       <c r="E20">
-        <v>0.04100314153855011</v>
+        <v>0.1263252847094725</v>
       </c>
       <c r="F20">
-        <v>0.8714306171642079</v>
+        <v>1.77115561425326</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06474867794377914</v>
+        <v>0.1696470546887081</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.243697524765679</v>
+        <v>0.2867510836798033</v>
       </c>
       <c r="M20">
-        <v>0.6485651149769183</v>
+        <v>0.379635204217692</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.270583395344119</v>
+        <v>4.626296366330337</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.261751916653168</v>
+        <v>1.903216565995479</v>
       </c>
       <c r="C21">
-        <v>0.5968045970257094</v>
+        <v>0.2631089782539107</v>
       </c>
       <c r="D21">
-        <v>0.06486792555633514</v>
+        <v>0.1207276830020234</v>
       </c>
       <c r="E21">
-        <v>0.03949162238730963</v>
+        <v>0.125297338352627</v>
       </c>
       <c r="F21">
-        <v>0.9055944829599127</v>
+        <v>1.76187433276877</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06189440484797792</v>
+        <v>0.1681640074070962</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2690031563503226</v>
+        <v>0.2927261514897026</v>
       </c>
       <c r="M21">
-        <v>0.7300194277411194</v>
+        <v>0.4025862186552516</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.354302682063405</v>
+        <v>4.596489754684825</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.579716429796292</v>
+        <v>1.995406447849859</v>
       </c>
       <c r="C22">
-        <v>0.6319463319723013</v>
+        <v>0.2745463104228065</v>
       </c>
       <c r="D22">
-        <v>0.06756156202849439</v>
+        <v>0.1212021544665163</v>
       </c>
       <c r="E22">
-        <v>0.03854686626102888</v>
+        <v>0.1246547758332692</v>
       </c>
       <c r="F22">
-        <v>0.9303995695738507</v>
+        <v>1.756701984709707</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06009768254135217</v>
+        <v>0.1672350620801826</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2857367557395065</v>
+        <v>0.2966976751339843</v>
       </c>
       <c r="M22">
-        <v>0.7836486593168033</v>
+        <v>0.4176426495161181</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.416407671636051</v>
+        <v>4.579529365649393</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.409804376337263</v>
+        <v>1.946189852775206</v>
       </c>
       <c r="C23">
-        <v>0.6131747470575704</v>
+        <v>0.2684454678093857</v>
       </c>
       <c r="D23">
-        <v>0.06611977928894675</v>
+        <v>0.1209468961151146</v>
       </c>
       <c r="E23">
-        <v>0.03904710550655377</v>
+        <v>0.1249950502021986</v>
       </c>
       <c r="F23">
-        <v>0.9169230629610468</v>
+        <v>1.759380779759553</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06105024013173121</v>
+        <v>0.1677271743508868</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2767866851661864</v>
+        <v>0.294571952493726</v>
       </c>
       <c r="M23">
-        <v>0.7549863353779287</v>
+        <v>0.4096016639101876</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.382551317859537</v>
+        <v>4.588350689299318</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.770534440550023</v>
+        <v>1.760087413501765</v>
       </c>
       <c r="C24">
-        <v>0.5423956773410907</v>
+        <v>0.2452643341163707</v>
       </c>
       <c r="D24">
-        <v>0.06074678591969018</v>
+        <v>0.1200247744873479</v>
       </c>
       <c r="E24">
-        <v>0.04102856334108074</v>
+        <v>0.1263425808089753</v>
       </c>
       <c r="F24">
-        <v>0.8709116842313023</v>
+        <v>1.771322389822913</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06479646791570026</v>
+        <v>0.1696719760442171</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2432869486902689</v>
+        <v>0.2866545546155095</v>
       </c>
       <c r="M24">
-        <v>0.647239721400922</v>
+        <v>0.3792610589048664</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.269332539038004</v>
+        <v>4.62682604197434</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.088058773934051</v>
+        <v>1.560041525251904</v>
       </c>
       <c r="C25">
-        <v>0.4665365007954563</v>
+        <v>0.220106987405444</v>
       </c>
       <c r="D25">
-        <v>0.05511797482989067</v>
+        <v>0.1191265085268611</v>
       </c>
       <c r="E25">
-        <v>0.04334615189737567</v>
+        <v>0.1279221371701809</v>
       </c>
       <c r="F25">
-        <v>0.8308852820736234</v>
+        <v>1.788036576542254</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06912294827246335</v>
+        <v>0.171943370370192</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2078757923937644</v>
+        <v>0.2784034066239087</v>
       </c>
       <c r="M25">
-        <v>0.5323962019440387</v>
+        <v>0.3467864406364356</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.175765256128386</v>
+        <v>4.679128858750005</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_219/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_219/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.413372394153498</v>
+        <v>2.589728390601351</v>
       </c>
       <c r="C2">
-        <v>0.201456015503112</v>
+        <v>0.4109208041804209</v>
       </c>
       <c r="D2">
-        <v>0.1185488847114016</v>
+        <v>0.05109774774340536</v>
       </c>
       <c r="E2">
-        <v>0.1291941946858399</v>
+        <v>0.04520297858439237</v>
       </c>
       <c r="F2">
-        <v>1.803637194831531</v>
+        <v>0.8086268239293872</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1737659992641758</v>
+        <v>0.07254523185381601</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.272579169364171</v>
+        <v>0.1823055806780616</v>
       </c>
       <c r="M2">
-        <v>0.3230976196828124</v>
+        <v>0.4486898713196297</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.726910747837309</v>
+        <v>2.12822215506165</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.314378415876035</v>
+        <v>2.253752839846072</v>
       </c>
       <c r="C3">
-        <v>0.1887386274958658</v>
+        <v>0.3732989647290026</v>
       </c>
       <c r="D3">
-        <v>0.1182101425572206</v>
+        <v>0.04844211139950971</v>
       </c>
       <c r="E3">
-        <v>0.1301246217882692</v>
+        <v>0.04655302595216293</v>
       </c>
       <c r="F3">
-        <v>1.816263475189238</v>
+        <v>0.7975666293070134</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1750953665009884</v>
+        <v>0.07500818800614972</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2687900340461695</v>
+        <v>0.1652364408552458</v>
       </c>
       <c r="M3">
-        <v>0.3071849845766366</v>
+        <v>0.3923440623328034</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.765067934788078</v>
+        <v>2.107866517624302</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.253802580274055</v>
+        <v>2.048070143143036</v>
       </c>
       <c r="C4">
-        <v>0.1808928524815485</v>
+        <v>0.3502098650648406</v>
       </c>
       <c r="D4">
-        <v>0.1180283284263695</v>
+        <v>0.04684297251741754</v>
       </c>
       <c r="E4">
-        <v>0.1307297229449214</v>
+        <v>0.04742649135119059</v>
       </c>
       <c r="F4">
-        <v>1.825028694161645</v>
+        <v>0.792615911027859</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1759581931711569</v>
+        <v>0.07659006999641615</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2665419847514272</v>
+        <v>0.1548681308967375</v>
       </c>
       <c r="M4">
-        <v>0.2974856371997561</v>
+        <v>0.3578919510472147</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.791342454178078</v>
+        <v>2.100777326239211</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.229171044146653</v>
+        <v>1.964371722024453</v>
       </c>
       <c r="C5">
-        <v>0.177686475829006</v>
+        <v>0.3408005441967958</v>
       </c>
       <c r="D5">
-        <v>0.1179608494628575</v>
+        <v>0.04619887260487587</v>
       </c>
       <c r="E5">
-        <v>0.1309848238460094</v>
+        <v>0.04779353301132083</v>
       </c>
       <c r="F5">
-        <v>1.828855203617941</v>
+        <v>0.7910409442772064</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1763215372722504</v>
+        <v>0.07725202608328896</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2656457351205148</v>
+        <v>0.1506690186914241</v>
       </c>
       <c r="M5">
-        <v>0.2935512272236167</v>
+        <v>0.3438828421658258</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.802764799976671</v>
+        <v>2.099186604741675</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.225084281260138</v>
+        <v>1.950479899185837</v>
       </c>
       <c r="C6">
-        <v>0.1771535123344705</v>
+        <v>0.3392380289399313</v>
       </c>
       <c r="D6">
-        <v>0.117950044848893</v>
+        <v>0.04609236746468426</v>
       </c>
       <c r="E6">
-        <v>0.1310276979949387</v>
+        <v>0.04785514739657026</v>
       </c>
       <c r="F6">
-        <v>1.82950596984476</v>
+        <v>0.7908055746501645</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1763825796478349</v>
+        <v>0.07736298480014892</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.265498115628823</v>
+        <v>0.1499732725623701</v>
       </c>
       <c r="M6">
-        <v>0.2928990261310318</v>
+        <v>0.3415583110128679</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.804704661930742</v>
+        <v>2.098999120728564</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.253470171585718</v>
+        <v>2.046940918515077</v>
       </c>
       <c r="C7">
-        <v>0.1808496469739964</v>
+        <v>0.350082972868023</v>
       </c>
       <c r="D7">
-        <v>0.1180273915695231</v>
+        <v>0.04683425577793088</v>
       </c>
       <c r="E7">
-        <v>0.1307331288198812</v>
+        <v>0.04743139659968421</v>
       </c>
       <c r="F7">
-        <v>1.825079268927482</v>
+        <v>0.7925929048704035</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1759630458151182</v>
+        <v>0.07659892744320462</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2665298171012935</v>
+        <v>0.1548113974494569</v>
       </c>
       <c r="M7">
-        <v>0.2974325024971662</v>
+        <v>0.3577029037386836</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.791493604314923</v>
+        <v>2.100750696548147</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.379197253359678</v>
+        <v>2.473736750419221</v>
       </c>
       <c r="C8">
-        <v>0.1970789102430217</v>
+        <v>0.3979446187567817</v>
       </c>
       <c r="D8">
-        <v>0.1184266714329851</v>
+        <v>0.05017534707312876</v>
       </c>
       <c r="E8">
-        <v>0.1295079962001919</v>
+        <v>0.04565917123944629</v>
       </c>
       <c r="F8">
-        <v>1.807780549492783</v>
+        <v>0.8044187907438456</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1742147073574989</v>
+        <v>0.07337989939549772</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2712564483201874</v>
+        <v>0.1763955070440772</v>
       </c>
       <c r="M8">
-        <v>0.3175963537850208</v>
+        <v>0.4292281631696682</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.73947647833603</v>
+        <v>2.120042493218989</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.627332369568535</v>
+        <v>3.317182538951783</v>
       </c>
       <c r="C9">
-        <v>0.2286013970677629</v>
+        <v>0.4920413232185012</v>
       </c>
       <c r="D9">
-        <v>0.1194161389837944</v>
+        <v>0.05699353454214418</v>
       </c>
       <c r="E9">
-        <v>0.1273731662755422</v>
+        <v>0.04254180660771478</v>
       </c>
       <c r="F9">
-        <v>1.781894509591751</v>
+        <v>0.843181189711899</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1711549734841888</v>
+        <v>0.06762822914808986</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2811439992479166</v>
+        <v>0.2197184163312613</v>
       </c>
       <c r="M9">
-        <v>0.3576914336833781</v>
+        <v>0.570927958642045</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.660069162567112</v>
+        <v>2.203762953833831</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.810546480302207</v>
+        <v>3.943394118368758</v>
       </c>
       <c r="C10">
-        <v>0.2515684342345708</v>
+        <v>0.5615593539399697</v>
       </c>
       <c r="D10">
-        <v>0.1202675146623022</v>
+        <v>0.06219104828200983</v>
       </c>
       <c r="E10">
-        <v>0.125966941002706</v>
+        <v>0.04047633193297484</v>
       </c>
       <c r="F10">
-        <v>1.767779362188676</v>
+        <v>0.8825919672036946</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1691304891481877</v>
+        <v>0.06375673110940383</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2887808919493011</v>
+        <v>0.2523166259726821</v>
       </c>
       <c r="M10">
-        <v>0.387476564402391</v>
+        <v>0.6763594988692816</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.615532086818973</v>
+        <v>2.297654397211289</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.894082098309525</v>
+        <v>4.230317192850009</v>
       </c>
       <c r="C11">
-        <v>0.261973451611226</v>
+        <v>0.5933272022790845</v>
       </c>
       <c r="D11">
-        <v>0.1206815454333494</v>
+        <v>0.06460268188643425</v>
       </c>
       <c r="E11">
-        <v>0.125362241172053</v>
+        <v>0.03958707030734043</v>
       </c>
       <c r="F11">
-        <v>1.762423678517848</v>
+        <v>0.9032398372685151</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1682577555639497</v>
+        <v>0.062075385046791</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2923350893886152</v>
+        <v>0.2673524109417116</v>
       </c>
       <c r="M11">
-        <v>0.4010956942395296</v>
+        <v>0.7247193968410244</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.598274365031358</v>
+        <v>2.34845785388697</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.925740974398821</v>
+        <v>4.339318724754321</v>
       </c>
       <c r="C12">
-        <v>0.2659072357272407</v>
+        <v>0.6053827514981833</v>
       </c>
       <c r="D12">
-        <v>0.1208421452284796</v>
+        <v>0.06552326110944051</v>
       </c>
       <c r="E12">
-        <v>0.1251382753191099</v>
+        <v>0.03925770943684581</v>
       </c>
       <c r="F12">
-        <v>1.760548882973524</v>
+        <v>0.9114809213607913</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.167934187544823</v>
+        <v>0.06145045846582775</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.293692399584998</v>
+        <v>0.2730792688728911</v>
       </c>
       <c r="M12">
-        <v>0.4062626991946985</v>
+        <v>0.7430990075242434</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.592171528068803</v>
+        <v>2.368955231759145</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.918921549962874</v>
+        <v>4.315826815551532</v>
       </c>
       <c r="C13">
-        <v>0.2650603116462946</v>
+        <v>0.6027851420896297</v>
       </c>
       <c r="D13">
-        <v>0.1208073879653213</v>
+        <v>0.06532466193647224</v>
       </c>
       <c r="E13">
-        <v>0.1251862872592024</v>
+        <v>0.0393283124127648</v>
       </c>
       <c r="F13">
-        <v>1.760945834938951</v>
+        <v>0.9096867586194151</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.168003566311727</v>
+        <v>0.06158451966681078</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2933995727195793</v>
+        <v>0.2718443567215161</v>
       </c>
       <c r="M13">
-        <v>0.4051494638105169</v>
+        <v>0.7391375011097523</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.593466648449748</v>
+        <v>2.364483147191692</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.896686186464422</v>
+        <v>4.239277473018603</v>
       </c>
       <c r="C14">
-        <v>0.2622972152873615</v>
+        <v>0.5943184726975517</v>
       </c>
       <c r="D14">
-        <v>0.1206946817769534</v>
+        <v>0.0646782679545197</v>
       </c>
       <c r="E14">
-        <v>0.1253437148095964</v>
+        <v>0.03955982475530329</v>
       </c>
       <c r="F14">
-        <v>1.762266365391469</v>
+        <v>0.9039091882901715</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1682309968867681</v>
+        <v>0.0620237345092356</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2924465280184165</v>
+        <v>0.2678228784519376</v>
       </c>
       <c r="M14">
-        <v>0.4015205933759134</v>
+        <v>0.7262301034269214</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.597763614164165</v>
+        <v>2.350118374359852</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.883069688813407</v>
+        <v>4.192436057943269</v>
       </c>
       <c r="C15">
-        <v>0.260603903063128</v>
+        <v>0.5891359057057173</v>
       </c>
       <c r="D15">
-        <v>0.1206261419864845</v>
+        <v>0.06428330674305016</v>
       </c>
       <c r="E15">
-        <v>0.1254407972385119</v>
+        <v>0.0397025987281312</v>
       </c>
       <c r="F15">
-        <v>1.763095193309454</v>
+        <v>0.900426204465532</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.168371205042245</v>
+        <v>0.06229430696059701</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2918642436241612</v>
+        <v>0.2653640276122076</v>
       </c>
       <c r="M15">
-        <v>0.399299064801788</v>
+        <v>0.7183329385595982</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.600451942463565</v>
+        <v>2.341486489349649</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.805090924550484</v>
+        <v>3.924688938729787</v>
       </c>
       <c r="C16">
-        <v>0.2508875621264508</v>
+        <v>0.5594865674546838</v>
       </c>
       <c r="D16">
-        <v>0.1202409922649039</v>
+        <v>0.06203443931795505</v>
       </c>
       <c r="E16">
-        <v>0.1260071628043513</v>
+        <v>0.04053547232895705</v>
       </c>
       <c r="F16">
-        <v>1.768150814089381</v>
+        <v>0.8812999115808537</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1691884931710312</v>
+        <v>0.0638682410394491</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2885502198546135</v>
+        <v>0.2513384466197834</v>
       </c>
       <c r="M16">
-        <v>0.386587900409225</v>
+        <v>0.6732078765290765</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.616720382366964</v>
+        <v>2.294505104266648</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.757301111757101</v>
+        <v>3.760998662339603</v>
       </c>
       <c r="C17">
-        <v>0.2449157849360404</v>
+        <v>0.5413379555013194</v>
       </c>
       <c r="D17">
-        <v>0.1200115421759236</v>
+        <v>0.06066731337000419</v>
       </c>
       <c r="E17">
-        <v>0.1263635652952764</v>
+        <v>0.04105940551601162</v>
       </c>
       <c r="F17">
-        <v>1.771525202052544</v>
+        <v>0.8702845144255917</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1697022104330053</v>
+        <v>0.06485443793858181</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2865376194632745</v>
+        <v>0.2427894881684551</v>
       </c>
       <c r="M17">
-        <v>0.3788076636251105</v>
+        <v>0.6456336801521871</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.627469921995271</v>
+        <v>2.267821767598122</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.729831713786439</v>
+        <v>3.667038383706199</v>
       </c>
       <c r="C18">
-        <v>0.2414769605222489</v>
+        <v>0.5309125541475339</v>
       </c>
       <c r="D18">
-        <v>0.1198820867812813</v>
+        <v>0.05988539132459891</v>
       </c>
       <c r="E18">
-        <v>0.1265718535738491</v>
+        <v>0.04136548641821403</v>
       </c>
       <c r="F18">
-        <v>1.773566333034552</v>
+        <v>0.8642027436216324</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1700022261273304</v>
+        <v>0.0654291668427458</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2853875743668937</v>
+        <v>0.2378915887490507</v>
       </c>
       <c r="M18">
-        <v>0.3743392572044968</v>
+        <v>0.6298106356464857</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.633935342195883</v>
+        <v>2.253229704255801</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.720534196469487</v>
+        <v>3.635256104755456</v>
       </c>
       <c r="C19">
-        <v>0.2403119504864435</v>
+        <v>0.5273848117658986</v>
       </c>
       <c r="D19">
-        <v>0.11983868881115</v>
+        <v>0.05962138779921133</v>
       </c>
       <c r="E19">
-        <v>0.1266429426903799</v>
+        <v>0.04146992797120852</v>
       </c>
       <c r="F19">
-        <v>1.774274644115792</v>
+        <v>0.8621862753758052</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1701045863732968</v>
+        <v>0.0656250390314348</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2849994888654663</v>
+        <v>0.236236448351633</v>
       </c>
       <c r="M19">
-        <v>0.3728274705714298</v>
+        <v>0.6244592873355899</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.636172937351887</v>
+        <v>2.248416044113213</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.76238656406349</v>
+        <v>3.778403724227076</v>
       </c>
       <c r="C20">
-        <v>0.2455519080328088</v>
+        <v>0.5432685046275481</v>
       </c>
       <c r="D20">
-        <v>0.1200357071151998</v>
+        <v>0.0608123857278926</v>
       </c>
       <c r="E20">
-        <v>0.1263252847094725</v>
+        <v>0.04100314153855411</v>
       </c>
       <c r="F20">
-        <v>1.77115561425326</v>
+        <v>0.8714306171642079</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1696470546887081</v>
+        <v>0.06474867794385375</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2867510836798033</v>
+        <v>0.2436975247656363</v>
       </c>
       <c r="M20">
-        <v>0.379635204217692</v>
+        <v>0.6485651149769041</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.626296366330337</v>
+        <v>2.27058339534409</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.903216565995479</v>
+        <v>4.261751916653168</v>
       </c>
       <c r="C21">
-        <v>0.2631089782539107</v>
+        <v>0.5968045970261358</v>
       </c>
       <c r="D21">
-        <v>0.1207276830020234</v>
+        <v>0.06486792555621435</v>
       </c>
       <c r="E21">
-        <v>0.125297338352627</v>
+        <v>0.03949162238730652</v>
       </c>
       <c r="F21">
-        <v>1.76187433276877</v>
+        <v>0.9055944829598985</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1681640074070962</v>
+        <v>0.06189440484791042</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2927261514897026</v>
+        <v>0.2690031563503084</v>
       </c>
       <c r="M21">
-        <v>0.4025862186552516</v>
+        <v>0.7300194277411265</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.596489754684825</v>
+        <v>2.354302682063405</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.995406447849859</v>
+        <v>4.579716429796292</v>
       </c>
       <c r="C22">
-        <v>0.2745463104228065</v>
+        <v>0.631946331972415</v>
       </c>
       <c r="D22">
-        <v>0.1212021544665163</v>
+        <v>0.06756156202861519</v>
       </c>
       <c r="E22">
-        <v>0.1246547758332692</v>
+        <v>0.03854686626103154</v>
       </c>
       <c r="F22">
-        <v>1.756701984709707</v>
+        <v>0.9303995695738507</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1672350620801826</v>
+        <v>0.06009768254124381</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2966976751339843</v>
+        <v>0.2857367557395207</v>
       </c>
       <c r="M22">
-        <v>0.4176426495161181</v>
+        <v>0.7836486593167962</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.579529365649393</v>
+        <v>2.416407671636051</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.946189852775206</v>
+        <v>4.409804376337433</v>
       </c>
       <c r="C23">
-        <v>0.2684454678093857</v>
+        <v>0.6131747470574567</v>
       </c>
       <c r="D23">
-        <v>0.1209468961151146</v>
+        <v>0.06611977928887569</v>
       </c>
       <c r="E23">
-        <v>0.1249950502021986</v>
+        <v>0.03904710550656754</v>
       </c>
       <c r="F23">
-        <v>1.759380779759553</v>
+        <v>0.9169230629610468</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1677271743508868</v>
+        <v>0.06105024013165128</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.294571952493726</v>
+        <v>0.2767866851660017</v>
       </c>
       <c r="M23">
-        <v>0.4096016639101876</v>
+        <v>0.7549863353779145</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.588350689299318</v>
+        <v>2.382551317859566</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.760087413501765</v>
+        <v>3.770534440550023</v>
       </c>
       <c r="C24">
-        <v>0.2452643341163707</v>
+        <v>0.5423956773412897</v>
       </c>
       <c r="D24">
-        <v>0.1200247744873479</v>
+        <v>0.06074678591963334</v>
       </c>
       <c r="E24">
-        <v>0.1263425808089753</v>
+        <v>0.04102856334108207</v>
       </c>
       <c r="F24">
-        <v>1.771322389822913</v>
+        <v>0.8709116842313023</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1696719760442171</v>
+        <v>0.06479646791562033</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2866545546155095</v>
+        <v>0.2432869486900699</v>
       </c>
       <c r="M24">
-        <v>0.3792610589048664</v>
+        <v>0.647239721400922</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.62682604197434</v>
+        <v>2.269332539038032</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.560041525251904</v>
+        <v>3.088058773933881</v>
       </c>
       <c r="C25">
-        <v>0.220106987405444</v>
+        <v>0.4665365007955131</v>
       </c>
       <c r="D25">
-        <v>0.1191265085268611</v>
+        <v>0.05511797482984093</v>
       </c>
       <c r="E25">
-        <v>0.1279221371701809</v>
+        <v>0.04334615189737612</v>
       </c>
       <c r="F25">
-        <v>1.788036576542254</v>
+        <v>0.8308852820736021</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.171943370370192</v>
+        <v>0.06912294827252197</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2784034066239087</v>
+        <v>0.2078757923937218</v>
       </c>
       <c r="M25">
-        <v>0.3467864406364356</v>
+        <v>0.5323962019440529</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.679128858750005</v>
+        <v>2.175765256128329</v>
       </c>
     </row>
   </sheetData>
